--- a/Bug/Bug_Landing.xlsx
+++ b/Bug/Bug_Landing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Docs\Bug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392ABA04-C424-42F6-A394-C3D3B1E6D6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6A86C-4E3A-4227-823F-A0A6F1160D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Không sửa</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Trang Chủ</t>
+  </si>
+  <si>
+    <t>Giới Thiệu</t>
   </si>
 </sst>
 </file>
@@ -462,23 +471,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="49" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -488,20 +497,23 @@
       <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -511,243 +523,266 @@
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB92BEB7-6606-441C-ADF2-3BC249969B70}">
           <x14:formula1>
             <xm:f>Master!$A$1:$A$3</xm:f>
@@ -764,13 +799,19 @@
           <x14:formula1>
             <xm:f>Master!$C$1:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:F22</xm:sqref>
+          <xm:sqref>F2:G22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C3A7B24-DC52-47EE-867D-EB64BBBD8F93}">
           <x14:formula1>
             <xm:f>Master!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G22</xm:sqref>
+          <xm:sqref>H2:H22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC4679B6-557D-4F55-9B9F-A6D0DCC318D1}">
+          <x14:formula1>
+            <xm:f>Master!$E$1:$E$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -780,10 +821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABEEC22-515D-4C30-BC48-5268FF7EE7C9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +833,7 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -805,8 +846,11 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -819,8 +863,11 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -828,7 +875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -842,7 +889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1649DF-16A9-4F3C-B2F4-DA24332C11CA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" activeCellId="1" sqref="A1 M21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Bug/Bug_Landing.xlsx
+++ b/Bug/Bug_Landing.xlsx
@@ -5,18 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Docs\Bug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c01515023adb62f/Desktop/Talent/TalentTechDocs/Bug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6A86C-4E3A-4227-823F-A0A6F1160D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{51F6A86C-4E3A-4227-823F-A0A6F1160D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81E5BE2B-F192-4DBB-827C-48FB95B07A97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Master" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Bug1" sheetId="3" r:id="rId3"/>
-    <sheet name="Bug2" sheetId="4" r:id="rId4"/>
+    <sheet name="Bug45" sheetId="22" r:id="rId2"/>
+    <sheet name="Master" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Bug1" sheetId="3" r:id="rId4"/>
+    <sheet name="Bug2" sheetId="4" r:id="rId5"/>
+    <sheet name="Bug3" sheetId="5" r:id="rId6"/>
+    <sheet name="Bug4" sheetId="6" r:id="rId7"/>
+    <sheet name="Bug5" sheetId="7" r:id="rId8"/>
+    <sheet name="Bug6" sheetId="8" r:id="rId9"/>
+    <sheet name="Bug 9" sheetId="9" r:id="rId10"/>
+    <sheet name="Bug 13" sheetId="10" r:id="rId11"/>
+    <sheet name="Bug 15" sheetId="11" r:id="rId12"/>
+    <sheet name="Bug29" sheetId="12" r:id="rId13"/>
+    <sheet name="Bug30" sheetId="13" r:id="rId14"/>
+    <sheet name="Bug31" sheetId="14" r:id="rId15"/>
+    <sheet name="Bug37" sheetId="15" r:id="rId16"/>
+    <sheet name="Bug38" sheetId="16" r:id="rId17"/>
+    <sheet name="Bug39" sheetId="17" r:id="rId18"/>
+    <sheet name="Bug41" sheetId="18" r:id="rId19"/>
+    <sheet name="Bug42" sheetId="19" r:id="rId20"/>
+    <sheet name="Bug43" sheetId="20" r:id="rId21"/>
+    <sheet name="Bug44" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -63,9 +81,6 @@
     <t>Layout</t>
   </si>
   <si>
-    <t>Ví trị ABC XYZ không đúng (Chi tiết coi #Bug1)</t>
-  </si>
-  <si>
     <t>Vy</t>
   </si>
   <si>
@@ -94,6 +109,248 @@
   </si>
   <si>
     <t>Giới Thiệu</t>
+  </si>
+  <si>
+    <t>Mục " Chủ đề", màu nền không đúng với tài liệu, chi tiết xem #Bug1</t>
+  </si>
+  <si>
+    <t>Mục " Chủ đề", Màu chữ không trùng với tài liệu, chi tiết xem #Bug2</t>
+  </si>
+  <si>
+    <t>Tài liệu mẫu</t>
+  </si>
+  <si>
+    <t>Mục "Chủ đề", nội dung không đúng với mẫu, chi tiết xem #Bug3</t>
+  </si>
+  <si>
+    <t>Lỗi: Màu nền không đúng với mẫu</t>
+  </si>
+  <si>
+    <t>Lỗi: Màu chữ không đúng với mẫu</t>
+  </si>
+  <si>
+    <t>Lỗi: Sau "business" là dấu"/", và 2 đoạn phải nằm 
+trong cùng một dấu ""</t>
+  </si>
+  <si>
+    <t>Mục "Giới thiệu", Giao diện không đúng với mẫu, chi tiết xem #Bug4</t>
+  </si>
+  <si>
+    <t>Mô tả: Thiếu cái Icon "V" màu hồng trước mỗi dòng.</t>
+  </si>
+  <si>
+    <t>Giao diện chỗ " Chủ đề-Giới thiệu", không đúng mẫu, chi tiết xem #Bug5</t>
+  </si>
+  <si>
+    <t>Lỗi: Giao diện chỗ "Chủ đề - Giới thiệu" không trùng với mẫu</t>
+  </si>
+  <si>
+    <t>Chữ " Talent Tech 6.0" ở thanh thông tin cuối trang sai định dạng, chi tiết xem #Bug6</t>
+  </si>
+  <si>
+    <t>Lỗi: Sai Font chữ</t>
+  </si>
+  <si>
+    <t>"Thông tin liên hệ" ở thanh thông tin cuối trang thiếu nội dung</t>
+  </si>
+  <si>
+    <t>"Hotline" ở thanh thông tin cuối trang thiếu nội dung</t>
+  </si>
+  <si>
+    <t>Thông tin đúng</t>
+  </si>
+  <si>
+    <t>Web ( Thông tin sai)</t>
+  </si>
+  <si>
+    <t>Thanh công cụ trên cùng trang web chỉ bao gồm 2 trang. Đó là" Trang chủ &amp; Giới thiệu". Dư trang " Đăng ký"</t>
+  </si>
+  <si>
+    <t>Link " Tìm hiểu Thêm" không bấm được</t>
+  </si>
+  <si>
+    <t>Web ( Trang đăng ký)</t>
+  </si>
+  <si>
+    <t>Lỗi: Thiếu dấu "X" bên góc phải trang</t>
+  </si>
+  <si>
+    <t>Video chỗ " Hình ảnh hoạt động và video" lỗi, không chạy video</t>
+  </si>
+  <si>
+    <t>Web ( Chỗ Thư viện)</t>
+  </si>
+  <si>
+    <t>Lỗi: Con trỏ chuột khi đưa vào hình ảnh là dạng Pointer, 
+nhưng lại không ấn được</t>
+  </si>
+  <si>
+    <t>Fix: Con trỏ chuột khi đưa vào hình ảnh là dạng Default.</t>
+  </si>
+  <si>
+    <t>Biểu tượng "FaceBook", không chạy chức năng</t>
+  </si>
+  <si>
+    <t>Biểu tượng " Youtube", không chạy chức năng</t>
+  </si>
+  <si>
+    <t>Biểu tượng " Instagram", không chạy chức năng</t>
+  </si>
+  <si>
+    <t>Link Button " Về chúng tôi" Thuộc mục Thông tin chỗ thanh thông tin cuối trang không chạy</t>
+  </si>
+  <si>
+    <t>Link Button " Liên hệ" Thuộc mục Thông tin chỗ thanh thông tin cuối trang không chạy</t>
+  </si>
+  <si>
+    <t>Link Button " Dịch vụ" Thuộc mục Thông tin chỗ thanh thông tin cuối trang không chạy</t>
+  </si>
+  <si>
+    <t>Link Button " Cam kết &amp; Quy định" Thuộc mục Thông tin chỗ thanh thông tin cuối trang không chạy</t>
+  </si>
+  <si>
+    <t>Biểu tượng " Google" thuộc mục đăng ký để nhận thông tin từ chúng tôi cuối trang không hoạt động</t>
+  </si>
+  <si>
+    <t>Nút " Đăng ký" thuộc mục Đăng ký để nhận thông tin từ chúng tôi cuối trang không hoạt động</t>
+  </si>
+  <si>
+    <t>Biểu tượng " Facebook" thuộc mục đăng ký để nhận thông tin từ chúng tôi cuối trang không hoạt động</t>
+  </si>
+  <si>
+    <t>Biểu tượng " Instagram" thuộc mục đăng ký để nhận thông tin từ chúng tôi cuối trang không hoạt động</t>
+  </si>
+  <si>
+    <t>Biểu tượng " Twitter" thuộc mục đăng ký để nhận thông tin từ chúng tôi cuối trang không hoạt động</t>
+  </si>
+  <si>
+    <t>Biểu tượng " ENG" thuộc mục VN|ENG không hoạt động được</t>
+  </si>
+  <si>
+    <t>Web ( Đăng ký thông tin)</t>
+  </si>
+  <si>
+    <t>Lỗi: Độ dài kí tự ở chỗ Họ tên</t>
+  </si>
+  <si>
+    <t>Fix: Độ dài kí tự tối đa là 50</t>
+  </si>
+  <si>
+    <t>Vị trí: Email</t>
+  </si>
+  <si>
+    <t>Vị trí: Họ tên</t>
+  </si>
+  <si>
+    <t>Lỗi: Độ dài kí tự ở chỗ Email</t>
+  </si>
+  <si>
+    <t>Web( Đăng ký thông tin)</t>
+  </si>
+  <si>
+    <t>Vị trí: Số điện thoại</t>
+  </si>
+  <si>
+    <t>Lỗi: Độ dài kí tự vượt mức cho phép</t>
+  </si>
+  <si>
+    <t>Fix: Độ dài kí tự tối đa là 11</t>
+  </si>
+  <si>
+    <t>Bỏ trống cột " Họ Tên", không hiện thông báo bắt buộc nhập</t>
+  </si>
+  <si>
+    <t>Bỏ trống cột " Email", không hiện thông báo bắt buộc nhập</t>
+  </si>
+  <si>
+    <t>Bỏ trống cột " Số điện thoại", không hiện thông báo bắt buộc nhập</t>
+  </si>
+  <si>
+    <t>Đăng ký thất bại không hiện thông báo</t>
+  </si>
+  <si>
+    <t>Nhập chữ vào cột " Số điện thoại", sai định dạng nhưng không hiện thông báo</t>
+  </si>
+  <si>
+    <t>Lỗi: Sai định dạng chỗ Họ tên</t>
+  </si>
+  <si>
+    <t>Lỗi: Định dạng gmail</t>
+  </si>
+  <si>
+    <t>Vị trí Số điện thoại</t>
+  </si>
+  <si>
+    <t>Lỗi: Nhập sai định sạng số điện thoại</t>
+  </si>
+  <si>
+    <t>Sau khi đăng ký thành công, nhưng số người đã tham gia không thay đổi</t>
+  </si>
+  <si>
+    <t>" Trụ sở" ở thanh thông tin cuối trang sai nội dung, chi tiết xem #Bug9</t>
+  </si>
+  <si>
+    <t>Sau khi hiện ra trang " Đăng ký" , Không hiện dấu "X" ở trang đăng ký để tắt trang, chi tiết xem #Bug13</t>
+  </si>
+  <si>
+    <t>Con trỏ chuột khi để vào các hình ảnh chỗ " Hình ảnh hoạt động và video" lỗi. Chi tiết xem #Bug15</t>
+  </si>
+  <si>
+    <t>Lỗi chỗ nhập "Họ và Tên", độ dài nhập kí tự vượt mức cho phép, chi tiết xem #Bug29</t>
+  </si>
+  <si>
+    <t>Lỗi chỗ nhập "Email", độ dài nhập kí tự vượt mức cho phép, chi tiết xem #Bug30</t>
+  </si>
+  <si>
+    <t>Lỗi chỗ nhập " Số điện thoại", độ dài nhập kí tự vượt mức cho phép, chi tiết xem #Bug31</t>
+  </si>
+  <si>
+    <t>Nhập số vào " họ tên" vẫn hoạt động, chi tiết xem #Bug37</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng gmail vẫn hoạt động, chi tiết xem #Bug38</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng Số điện thoại vẫn hoạt động, chi tiết xem #Bug39</t>
+  </si>
+  <si>
+    <t>Nút " Giới thiệu" trên cùng trang web không hoạt động</t>
+  </si>
+  <si>
+    <t>Lỗi: Dòng " Có một không hai…" trùng với model</t>
+  </si>
+  <si>
+    <t>Dòng " Có một không hai tại VN" bị trùng với hình người, chi tiết xem #bug41</t>
+  </si>
+  <si>
+    <t>Trang chủ bị mất link Button " Xem chi tiết" dưới nút " Đăng ký", chi tiết xem Bug 42</t>
+  </si>
+  <si>
+    <t>Lỗi: Thiếu mất link Button " Tìm hiểu thêm"</t>
+  </si>
+  <si>
+    <t>Chữ xuống dòng ở mục Chủ đề, Dòng tiếng anh sai với mẫu, chi tiết xem ở Bug 43</t>
+  </si>
+  <si>
+    <t>Lỗi: Chữ "Your" phải nằm cùng hàng với "...Starting"</t>
+  </si>
+  <si>
+    <t>Chữ xuống dòng ở mục Giới thiệu, Tiếng việt, đoạn đầu sai với mẫu tài liệu, chi tiết xem Bug44</t>
+  </si>
+  <si>
+    <t>Vị trí: Giới thiệu</t>
+  </si>
+  <si>
+    <t>Chữ chính bên Mobile đã bị xuống dòng</t>
+  </si>
+  <si>
+    <t>Chữ "video" bị xuống dòng, không trùng với mẫu tài liệu, chi tiết xem Bug45</t>
+  </si>
+  <si>
+    <t>Mobile ( Thư viện)</t>
+  </si>
+  <si>
+    <t>Lỗi: Không đúng định dạng theo mẫu</t>
   </si>
 </sst>
 </file>
@@ -161,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,6 +448,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,6 +466,1540 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B11DF95-74E5-48BD-9F5B-17D07EA77C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="501650" y="628650"/>
+          <a:ext cx="3460750" cy="1740674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCA43E1-6B63-469C-8EB1-6C41A1F68B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-545" t="23284" r="545" b="51717"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4768850" y="634999"/>
+          <a:ext cx="3086099" cy="1714499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>458442</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>172046</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A1C4EA-CA7C-4F04-8BE0-F393AC728299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="18153" b="6051"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="458442" y="533400"/>
+          <a:ext cx="6419204" cy="2736850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147F4D5E-4115-4C34-AD54-A3D5A6CCED95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679450" y="615950"/>
+          <a:ext cx="3251200" cy="1880963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>376492</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E704B359-41B8-496A-ABBD-A12D206BEF7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="641350"/>
+          <a:ext cx="3405442" cy="1111250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95410</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54925D9-78F4-4F2F-A09C-33558A9E1C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="641350" y="615950"/>
+          <a:ext cx="3111660" cy="1073205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53771</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B845A34A-29DD-45B1-B1F7-1B038BF82BA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615951" y="666751"/>
+          <a:ext cx="4314620" cy="3276599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>421828</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EA2923-6673-42DA-BB89-9C5980EA77E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692151" y="514351"/>
+          <a:ext cx="3996877" cy="3035299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>565151</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317225FB-A584-426D-8B8D-624953B823EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="565151" y="533401"/>
+          <a:ext cx="3098799" cy="2353283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501651</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387351</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE373B7-5444-45AD-A95F-A2006FA47E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3549651" y="533400"/>
+          <a:ext cx="1714500" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203306</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9423C694-977F-422B-A402-01A444104DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584200" y="546100"/>
+          <a:ext cx="2057506" cy="1847945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>505852</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEE2CCB-6BD9-4B61-ABDB-AFE709AA7C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="565150" y="590550"/>
+          <a:ext cx="2379102" cy="2089150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82869</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B14BA02-A03C-49EF-B1B7-90A470E83D39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619501" y="469900"/>
+          <a:ext cx="1340168" cy="2978150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>290552</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E3331C-0DC0-4755-A4DC-C42BA067A092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="469900" y="666750"/>
+          <a:ext cx="4087852" cy="1568450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>82836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D6B6F7-0882-4509-A77C-1ABF725D5239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="13514" b="49189"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499100" y="539750"/>
+          <a:ext cx="3225800" cy="2673636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D482D5-0341-4F33-9328-31DB8361915E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168400" y="419100"/>
+          <a:ext cx="2673350" cy="3508771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040C8234-FBAA-4250-A498-EA5BF196D213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4902201" y="444501"/>
+          <a:ext cx="3536950" cy="3370914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>580508</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEE99C8-571D-43C9-B137-EA657FF7D5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615949" y="749300"/>
+          <a:ext cx="3622159" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161B1181-0E9A-429B-8B9D-E522D513C997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="21212" b="54848"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876801" y="641349"/>
+          <a:ext cx="3644899" cy="1939037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806BD949-2F19-43EC-8564-60ACB80E62BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499101" y="834277"/>
+          <a:ext cx="3568700" cy="3401173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E32AF59-9945-4C7B-A332-D8D2AAAD5A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="749300"/>
+          <a:ext cx="2673350" cy="3508771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498324</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F70DD0E-7A64-4CE1-A48E-72CB8B38586A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="736601"/>
+          <a:ext cx="2327124" cy="3054350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170119</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BCCA8E-6584-44C4-B593-AA6DD0ADFC71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="736600"/>
+          <a:ext cx="3218119" cy="3067050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>543675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7A9C96-8CD1-4C3E-838D-AD5C1FB3C5A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="552451"/>
+          <a:ext cx="4201275" cy="3778250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571818</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265F7833-D654-404D-BBD6-8EC6D5F2F8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032500" y="533400"/>
+          <a:ext cx="4902518" cy="3733572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395563</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B914979C-0354-4678-B4B3-9A935ACCACB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="565151"/>
+          <a:ext cx="5246963" cy="2838449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266305</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4B090C-DC57-44D1-B2CB-26F965B1B404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619751" y="635001"/>
+          <a:ext cx="5619354" cy="2717799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>486183</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6447FF-B800-4DD1-8AA4-5D7F4E1EF0E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="768350"/>
+          <a:ext cx="5362983" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>451834</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E1D9D4-7923-458F-9F1B-E4B0B094C7D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6089650" y="831850"/>
+          <a:ext cx="4115784" cy="1530350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146251</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC4253A-3ABB-45B3-9837-06F86073361F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="698500"/>
+          <a:ext cx="3905451" cy="755689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>553733</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7D1CAF-ECFA-4294-87F4-CB5206F73DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724401" y="800100"/>
+          <a:ext cx="6192532" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>599110</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD69FCB-5C63-4788-9289-993063DC7924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="565150"/>
+          <a:ext cx="5450510" cy="4279900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,23 +2265,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="15.453125" style="2" customWidth="1"/>
     <col min="5" max="5" width="49" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -498,7 +2292,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -510,10 +2304,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -524,259 +2318,1120 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -787,31 +3442,31 @@
           <x14:formula1>
             <xm:f>Master!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B22</xm:sqref>
+          <xm:sqref>B2:B57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C84E4A29-0752-4E8F-B334-CE6B87DE13C8}">
           <x14:formula1>
             <xm:f>Master!$B$1:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C22</xm:sqref>
+          <xm:sqref>C2:C57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F657AB34-8777-4C63-89EA-0833DA2A58D8}">
           <x14:formula1>
             <xm:f>Master!$C$1:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:G22</xm:sqref>
+          <xm:sqref>F2:G57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C3A7B24-DC52-47EE-867D-EB64BBBD8F93}">
           <x14:formula1>
             <xm:f>Master!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H22</xm:sqref>
+          <xm:sqref>H2:H57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC4679B6-557D-4F55-9B9F-A6D0DCC318D1}">
           <x14:formula1>
             <xm:f>Master!$E$1:$E$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D22</xm:sqref>
+          <xm:sqref>D2:D57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -819,7 +3474,427 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B830F11A-CE46-467D-B994-D2ABE362AD30}">
+  <dimension ref="B3:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFCDF14-9FA9-44C4-BF3F-A2177F6B0D91}">
+  <dimension ref="B2:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A612E7-1840-4D9A-B440-BC4C264527BA}">
+  <dimension ref="B2:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="47.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="M6" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C39C0BC-B1A9-4B62-B76C-D65E8DCA30C3}">
+  <dimension ref="B3:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBEFFE3-C81C-403E-98E1-7D58FBBC6DAA}">
+  <dimension ref="B3:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3F8C6F-A4EF-4240-880A-FD974D88C6D0}">
+  <dimension ref="B3:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B984B5-49A8-4487-9AB9-80218F4258FE}">
+  <dimension ref="B2:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7035DB7-9340-4184-B13C-5B5C2019B932}">
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8388499-6B19-4929-B9C0-24063C1C1C6C}">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4227E91-0218-499B-A9E9-1C0050648455}">
+  <dimension ref="B2:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F5C203-7479-4F9F-91F3-FFB6DBC8463E}">
+  <dimension ref="B3:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94304990-D88A-4A26-9082-C2CCEE0742FE}">
+  <dimension ref="B2:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341AF169-E151-4BE0-8A39-E4AE4A0BE0D5}">
+  <dimension ref="B2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D50207-B10E-404F-9500-C966D30F66D9}">
+  <dimension ref="B3:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABEEC22-515D-4C30-BC48-5268FF7EE7C9}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -827,13 +3902,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -841,16 +3916,16 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -858,26 +3933,26 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -885,28 +3960,179 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1649DF-16A9-4F3C-B2F4-DA24332C11CA}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" activeCellId="1" sqref="A1 M21"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49B47C1-41FA-4704-9B7E-935CFE5968F5}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B09065F-B549-4A20-9CEF-9FEA5C55BA36}">
+  <dimension ref="C3:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="15" max="15" width="42.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="O9" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809E8744-2E23-431A-90D5-AC0318946D34}">
+  <dimension ref="C2:K26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED027D4-2901-4590-B5FF-BBF729073C29}">
+  <dimension ref="A3:J20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6711372-2A42-4C5E-A8DE-2E95A83A508A}">
+  <dimension ref="B3:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bug/Bug_Landing.xlsx
+++ b/Bug/Bug_Landing.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{51F6A86C-4E3A-4227-823F-A0A6F1160D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81E5BE2B-F192-4DBB-827C-48FB95B07A97}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2267,7 +2267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -3777,7 +3777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F5C203-7479-4F9F-91F3-FFB6DBC8463E}">
   <dimension ref="B3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
